--- a/combattants_burdigala.xlsx
+++ b/combattants_burdigala.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t>Combattant</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>Rang</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Draws</t>
   </si>
   <si>
     <t>Gabriel Tardio</t>
@@ -218,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -230,13 +239,24 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF333333"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor rgb="FFF9F9F9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,11 +265,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -489,593 +512,881 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>133.0</v>
       </c>
+      <c r="E2" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>299.0</v>
       </c>
+      <c r="E3" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>1255.0</v>
       </c>
+      <c r="E4" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>3626.0</v>
       </c>
+      <c r="E5" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>1104.0</v>
       </c>
+      <c r="E6" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
         <v>1000.0</v>
       </c>
+      <c r="E7" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>301.0</v>
       </c>
+      <c r="E8" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>2090.0</v>
       </c>
+      <c r="E9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>1158.0</v>
       </c>
+      <c r="E10" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>1918.0</v>
       </c>
+      <c r="E11" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>6778.0</v>
       </c>
+      <c r="E12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <v>676.0</v>
       </c>
+      <c r="E13" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>3224.0</v>
       </c>
+      <c r="E14" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>5953.0</v>
       </c>
+      <c r="E15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>5928.0</v>
       </c>
+      <c r="E16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>487.0</v>
       </c>
+      <c r="E17" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>2376.0</v>
       </c>
+      <c r="E18" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>2613.0</v>
       </c>
+      <c r="E19" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>1009.0</v>
       </c>
+      <c r="E21" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
         <v>1543.0</v>
       </c>
+      <c r="E22" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1">
         <v>397.0</v>
       </c>
+      <c r="E24" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>3190.0</v>
       </c>
+      <c r="E25" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>2717.0</v>
       </c>
+      <c r="E27" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <v>1137.0</v>
       </c>
+      <c r="E29" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
         <v>2242.0</v>
       </c>
+      <c r="E30" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
         <v>70.0</v>
       </c>
+      <c r="E33" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
         <v>1498.0</v>
       </c>
+      <c r="E36" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1">
         <v>128.0</v>
       </c>
+      <c r="E37" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
         <v>3499.0</v>
       </c>
+      <c r="E39" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D40" s="1">
         <v>1389.0</v>
       </c>
+      <c r="E40" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1">
         <v>3107.0</v>
       </c>
+      <c r="E42" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
